--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_gas.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_gas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502357CC-CB35-4EBB-B7EE-2092A5C02C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D730FD6-86B4-48DE-AB0B-EF566DDD80EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -187,10 +187,10 @@
     <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
+    <t>Instantáneo</t>
   </si>
   <si>
-    <t>Instantáneo</t>
+    <t>Etiqueta de EE del equipo nuevo.</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:W312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,14 +863,16 @@
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="20.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="23.28515625" customWidth="1"/>
   </cols>
@@ -986,38 +988,38 @@
         <v>41</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="G3" s="14" t="s">
-        <v>42</v>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>42</v>
+      <c r="J3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>42</v>
+      <c r="M3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="N3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>42</v>
+      <c r="P3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>42</v>
+      <c r="S3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="T3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="14" t="s">
-        <v>42</v>
+      <c r="V3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="W3" s="13" t="s">
         <v>35</v>
@@ -1032,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -19891,7 +19893,7 @@
       <c r="W312" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fqGEnAvZLqSjIN7Y8dXhU5kAbmX/q/73L8xVRRrUQeC5sgKzca/wAK80CpTb59hUzoViuis5TKJIHYSGhWpDjg==" saltValue="OyFlJN/m9p1kONiDLy1zbg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="F/CiQarWRFDwokwk5OG17lGKNEmqyl3Kbe2Tqa6E+xwcNjH+1vaSi57mRYFIW8C0hof604QHLZ/vl/mERUcchQ==" saltValue="o8mCHTYabbYiq2FP5faSCA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:W2"/>
   </mergeCells>
@@ -20016,7 +20018,7 @@
         <v>2013</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_gas.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4511B1-5B45-4A08-B2FB-32ACD2E1D629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A074BF5-54D6-4F8D-B2CE-D3EA9BF393A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -47,12 +47,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -166,9 +160,6 @@
     <t>Capacidad (L)</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-  </si>
-  <si>
     <t>Etiqueta de EE BAU</t>
   </si>
   <si>
@@ -236,6 +227,9 @@
   </si>
   <si>
     <t>Capacidad de los calentadores de agua a gas natural. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos. Evite borrar las etiquetas que se muestran por defecto desplegadas.</t>
   </si>
 </sst>
 </file>
@@ -553,13 +547,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:W312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,151 +904,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="D1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="M1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="O1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="P1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="Q1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="R1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="S1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="T1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="U1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="V1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="W1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="A2" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
     </row>
     <row r="3" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -1066,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="23">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -19925,7 +19919,7 @@
       <c r="W312" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FWjs1FQmMBLczzVFSM9zKRsL0iV3PoZf9KVShcybwLi125gRjQskEpyD/qN9JG6AvI3N6g52h3VDoBW0BhN90Q==" saltValue="ev2gPW+QhalQeuGr3TcH2A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BT0aDGvCRmR30ZCVlsYG4urB7zTHnGnWQlX4lJOgj1otqM10GDutkkOc5lsSBxr0Ev6OjFysP3hlsY4Nm9UtZw==" saltValue="It/4gFJI7a5seJfMQ1aj4w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:W2"/>
   </mergeCells>
@@ -20050,7 +20044,7 @@
         <v>2013</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
